--- a/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
+++ b/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F213EC8F-93E7-4D3C-B630-308D24C651BD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F42555-619A-44B1-BE3A-88A0B1CE94A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
+++ b/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F42555-619A-44B1-BE3A-88A0B1CE94A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23430E23-71AD-4AF3-80EB-5779C6AB2C69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -793,7 +794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7:H14"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
+++ b/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23430E23-71AD-4AF3-80EB-5779C6AB2C69}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EC975-5795-4F12-AAC2-19AECB30A84A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="model" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>setting_name</t>
   </si>
@@ -39,9 +38,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.tittle.text</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -72,9 +68,6 @@
     <t>display.prompt.text</t>
   </si>
   <si>
-    <t>display.prompt.text.portuguese</t>
-  </si>
-  <si>
     <t>begin screen</t>
   </si>
   <si>
@@ -90,18 +83,12 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>display.title.text.portuguese</t>
-  </si>
-  <si>
     <t>isSessionVariable</t>
   </si>
   <si>
     <t>display.locale.text</t>
   </si>
   <si>
-    <t>display.locale.text.portuguese</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -117,9 +104,6 @@
     <t>default</t>
   </si>
   <si>
-    <t>portuguese</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -292,6 +276,18 @@
   </si>
   <si>
     <t>Número de telemovel da mãe ou outro</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>display.prompt.text.english</t>
   </si>
 </sst>
 </file>
@@ -676,7 +672,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,29 +693,29 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>10072019</v>
@@ -727,59 +723,59 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -792,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,166 +808,166 @@
   <sheetData>
     <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1005,30 +1001,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1040,9 +1036,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,196 +1051,196 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B9" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B13" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1271,13 +1267,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
+++ b/app/config/tables/MIFSES/forms/MIFSES/MIFSES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830EC975-5795-4F12-AAC2-19AECB30A84A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3362513-8054-41EB-98F2-0D6BDF17952D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>setting_name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>branch_label</t>
   </si>
   <si>
-    <t>NCICA</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -251,9 +248,6 @@
     <t>Tipo de casa de banho</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Woman in the fertile age - SES</t>
   </si>
   <si>
@@ -288,6 +282,21 @@
   </si>
   <si>
     <t>display.prompt.text.english</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>TELENUMERO</t>
+  </si>
+  <si>
+    <t>SES_ESTADO</t>
+  </si>
+  <si>
+    <t>SESDATA</t>
   </si>
 </sst>
 </file>
@@ -331,18 +340,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -374,7 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -385,7 +388,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="2" xr:uid="{C28CC074-D3A0-48A2-81F3-B6A5CA836B7C}"/>
@@ -672,7 +674,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="A1:F1"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,13 +695,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>18</v>
@@ -710,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -726,7 +728,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -734,10 +736,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -753,7 +755,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
@@ -764,18 +766,18 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>27</v>
+      <c r="B9" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -786,11 +788,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F97EDFF-72E2-4781-A226-FCA8C7C63015}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +828,7 @@
         <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>11</v>
@@ -836,43 +838,43 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -887,36 +889,36 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
       <c r="F7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>39</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -935,46 +937,59 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
-      </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>73</v>
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="D13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
+      <c r="I13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1001,30 +1016,30 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF3D0A7-17A8-4B35-89BF-E7F3088D1597}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C1" sqref="C1:D1"/>
     </sheetView>
@@ -1057,7 +1072,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>16</v>
@@ -1065,182 +1080,182 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
         <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
         <v>53</v>
-      </c>
-      <c r="D5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
         <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>57</v>
-      </c>
-      <c r="D7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="str">
         <f>"4"</f>
         <v>4</v>
       </c>
       <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
         <v>45</v>
-      </c>
-      <c r="D9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="str">
         <f>"1"</f>
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
         <v>62</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" t="str">
         <f>"2"</f>
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" t="str">
         <f>"3"</f>
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" t="str">
         <f>"9"</f>
         <v>9</v>
       </c>
       <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1251,16 +1266,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCD3AC6-97A9-4343-AD51-53B42E3E4B29}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1276,7 +1291,109 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C8">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>